--- a/Driving_Notes.xlsx
+++ b/Driving_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashraf/Documents/Github/behavioral_profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CB8773-26EA-6E4C-A91E-99BD50322EDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A1BC85-8804-4A4A-9D0A-62631238848D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="2" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="75">
   <si>
     <t>Interest Points</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Right</t>
   </si>
   <si>
-    <t>Signal, right</t>
-  </si>
-  <si>
     <t>Roundabout</t>
   </si>
   <si>
@@ -84,6 +81,186 @@
   </si>
   <si>
     <t>Other notes</t>
+  </si>
+  <si>
+    <t>n,g,n</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>n,o,n</t>
+  </si>
+  <si>
+    <t>braking could've been better, turn was bad</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>3:15.3</t>
+  </si>
+  <si>
+    <t>n,b,n</t>
+  </si>
+  <si>
+    <t>hard braking</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>y,g,n</t>
+  </si>
+  <si>
+    <t>fast turn</t>
+  </si>
+  <si>
+    <t>turn can be better</t>
+  </si>
+  <si>
+    <t>3:45.5</t>
+  </si>
+  <si>
+    <t>4:46</t>
+  </si>
+  <si>
+    <t>9:47</t>
+  </si>
+  <si>
+    <t>13:19.5</t>
+  </si>
+  <si>
+    <t>n,n/a,y</t>
+  </si>
+  <si>
+    <t>fast approach</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>2:27</t>
+  </si>
+  <si>
+    <t>3:11</t>
+  </si>
+  <si>
+    <t>4:09.5</t>
+  </si>
+  <si>
+    <t>4:45</t>
+  </si>
+  <si>
+    <t>5:16</t>
+  </si>
+  <si>
+    <t>5:30</t>
+  </si>
+  <si>
+    <t>5:50</t>
+  </si>
+  <si>
+    <t>6:09</t>
+  </si>
+  <si>
+    <t>6:38</t>
+  </si>
+  <si>
+    <t>9:09</t>
+  </si>
+  <si>
+    <t>12:34</t>
+  </si>
+  <si>
+    <t>14:03</t>
+  </si>
+  <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>14:47</t>
+  </si>
+  <si>
+    <t>15:27</t>
+  </si>
+  <si>
+    <t>16:04</t>
+  </si>
+  <si>
+    <t>16:49</t>
+  </si>
+  <si>
+    <t>17:08</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>2:24.5</t>
+  </si>
+  <si>
+    <t>3:08.8</t>
+  </si>
+  <si>
+    <t>4:15</t>
+  </si>
+  <si>
+    <t>n,n,y</t>
+  </si>
+  <si>
+    <t>perfect hard braking</t>
+  </si>
+  <si>
+    <t>5:13</t>
+  </si>
+  <si>
+    <t>5:39</t>
+  </si>
+  <si>
+    <t>5:52</t>
+  </si>
+  <si>
+    <t>6:30</t>
+  </si>
+  <si>
+    <t>very bad turn</t>
+  </si>
+  <si>
+    <t>8:26</t>
+  </si>
+  <si>
+    <t>10:43</t>
+  </si>
+  <si>
+    <t>12:17</t>
+  </si>
+  <si>
+    <t>12:47</t>
+  </si>
+  <si>
+    <t>12:56</t>
+  </si>
+  <si>
+    <t>smooth curves, but fast</t>
+  </si>
+  <si>
+    <t>14:37</t>
+  </si>
+  <si>
+    <t>14:55</t>
+  </si>
+  <si>
+    <t>ver bad turn</t>
   </si>
 </sst>
 </file>
@@ -469,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC609971-6830-C140-A978-FC29A4E18CF2}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -491,19 +668,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -515,57 +692,102 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -573,130 +795,224 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -706,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6551D-24A7-A949-884D-7CD04118D52B}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -728,19 +1044,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -752,188 +1068,357 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -943,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED39CA-117A-8847-BB2E-82C9A3B198C5}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -965,19 +1450,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -989,188 +1474,363 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1180,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2BA50-2B95-FF43-9FC6-142C482326A9}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1202,19 +1862,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1227,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1235,48 +1895,48 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1284,34 +1944,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1319,84 +1985,84 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1404,10 +2070,32 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1417,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72861614-58F5-5C4E-87EB-D1729FCA4042}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1439,19 +2127,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1464,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,48 +2160,48 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1521,34 +2209,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,84 +2250,84 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1641,10 +2335,32 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1654,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC7433F-BFCF-564D-89B9-0F263DCCE8F5}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1676,19 +2392,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1701,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1709,48 +2425,48 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1758,34 +2474,40 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1793,84 +2515,84 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1878,10 +2600,32 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Driving_Notes.xlsx
+++ b/Driving_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashraf/Documents/Github/behavioral_profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A1BC85-8804-4A4A-9D0A-62631238848D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B771B-5459-CE4F-B635-FAC2B98D41B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="2" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="3" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Sheet 4" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet 5" sheetId="9" r:id="rId5"/>
     <sheet name="Sheet 6" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet 7" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet 8" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="75">
   <si>
     <t>Interest Points</t>
   </si>
@@ -1430,7 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED39CA-117A-8847-BB2E-82C9A3B198C5}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1842,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2BA50-2B95-FF43-9FC6-142C482326A9}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2631,4 +2633,534 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC8841-5808-9244-A5AE-9A821460627E}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" style="5" customWidth="1"/>
+    <col min="4" max="12" width="50.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C23065-D40B-374D-B96F-802F16110DDE}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" style="5" customWidth="1"/>
+    <col min="4" max="12" width="50.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Driving_Notes.xlsx
+++ b/Driving_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashraf/Documents/Github/behavioral_profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B771B-5459-CE4F-B635-FAC2B98D41B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE67C07-6F5E-594A-88CA-6C1E7704A4B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="3" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="5" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="147">
   <si>
     <t>Interest Points</t>
   </si>
@@ -263,6 +263,222 @@
   </si>
   <si>
     <t>ver bad turn</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>2:21.7</t>
+  </si>
+  <si>
+    <t>3:36.4</t>
+  </si>
+  <si>
+    <t>4:36.1</t>
+  </si>
+  <si>
+    <t>5:05.7</t>
+  </si>
+  <si>
+    <t>n/A,n/a,y</t>
+  </si>
+  <si>
+    <t>5:34.2</t>
+  </si>
+  <si>
+    <t>5:45.3</t>
+  </si>
+  <si>
+    <t>5:59.2</t>
+  </si>
+  <si>
+    <t>6:15</t>
+  </si>
+  <si>
+    <t>6:43.2</t>
+  </si>
+  <si>
+    <t>9:33.8</t>
+  </si>
+  <si>
+    <t>12:11.5</t>
+  </si>
+  <si>
+    <t>13:16.2</t>
+  </si>
+  <si>
+    <t>n,g,y</t>
+  </si>
+  <si>
+    <t>14:09.5</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>14:57.8</t>
+  </si>
+  <si>
+    <t>15:32.8</t>
+  </si>
+  <si>
+    <t>16:16.5</t>
+  </si>
+  <si>
+    <t>16:36.1</t>
+  </si>
+  <si>
+    <t>17:11.4</t>
+  </si>
+  <si>
+    <t>17:17.4</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>y,g,y</t>
+  </si>
+  <si>
+    <t>2:18.1</t>
+  </si>
+  <si>
+    <t>2:47</t>
+  </si>
+  <si>
+    <t>3:45.6</t>
+  </si>
+  <si>
+    <t>4:16.3</t>
+  </si>
+  <si>
+    <t>4:54.6</t>
+  </si>
+  <si>
+    <t>n,b,y</t>
+  </si>
+  <si>
+    <t>5:05.9</t>
+  </si>
+  <si>
+    <t>5:17.4</t>
+  </si>
+  <si>
+    <t>5:34.7</t>
+  </si>
+  <si>
+    <t>4:42.3</t>
+  </si>
+  <si>
+    <t>y,b,n</t>
+  </si>
+  <si>
+    <t>7:38.9</t>
+  </si>
+  <si>
+    <t>confirm times</t>
+  </si>
+  <si>
+    <t>car stopped before</t>
+  </si>
+  <si>
+    <t>car stopped soon after we started</t>
+  </si>
+  <si>
+    <t>10:45.5</t>
+  </si>
+  <si>
+    <t>11:51.4</t>
+  </si>
+  <si>
+    <t>12:22.6</t>
+  </si>
+  <si>
+    <t>12:41</t>
+  </si>
+  <si>
+    <t>13:11.2</t>
+  </si>
+  <si>
+    <t>13:43.7</t>
+  </si>
+  <si>
+    <t>fast turns</t>
+  </si>
+  <si>
+    <t>14:39.5</t>
+  </si>
+  <si>
+    <t>14:18.2</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>2:33.1</t>
+  </si>
+  <si>
+    <t>3:23.9</t>
+  </si>
+  <si>
+    <t>4:27.4</t>
+  </si>
+  <si>
+    <t>4:53.2</t>
+  </si>
+  <si>
+    <t>5:19.5</t>
+  </si>
+  <si>
+    <t>5:32.4</t>
+  </si>
+  <si>
+    <t>5:44.5</t>
+  </si>
+  <si>
+    <t>6:02</t>
+  </si>
+  <si>
+    <t>6:21.1</t>
+  </si>
+  <si>
+    <t>8:22.4</t>
+  </si>
+  <si>
+    <t>y,n/a,y</t>
+  </si>
+  <si>
+    <t>10:50.1</t>
+  </si>
+  <si>
+    <t>11:30.4</t>
+  </si>
+  <si>
+    <t>12:12.7</t>
+  </si>
+  <si>
+    <t>13:05</t>
+  </si>
+  <si>
+    <t>11:58.3</t>
+  </si>
+  <si>
+    <t>13:45.6</t>
+  </si>
+  <si>
+    <t>14:26.8</t>
+  </si>
+  <si>
+    <t>can be better</t>
+  </si>
+  <si>
+    <t>14:47.9</t>
+  </si>
+  <si>
+    <t>15:15.3</t>
+  </si>
+  <si>
+    <t>15:22.0</t>
   </si>
 </sst>
 </file>
@@ -1844,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2BA50-2B95-FF43-9FC6-142C482326A9}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A17" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1888,54 +2104,99 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -1945,38 +2206,65 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -1986,8 +2274,14 @@
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -1997,16 +2291,31 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -2016,8 +2325,14 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -2027,77 +2342,119 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2109,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72861614-58F5-5C4E-87EB-D1729FCA4042}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2153,54 +2510,99 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -2210,68 +2612,128 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -2281,8 +2743,14 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -2292,58 +2760,97 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -2353,8 +2860,11 @@
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2363,6 +2873,9 @@
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2374,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC7433F-BFCF-564D-89B9-0F263DCCE8F5}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2418,54 +2931,99 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -2475,38 +3033,65 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -2516,8 +3101,14 @@
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -2527,16 +3118,31 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -2546,8 +3152,14 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -2557,77 +3169,125 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Driving_Notes.xlsx
+++ b/Driving_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashraf/Documents/Github/behavioral_profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE67C07-6F5E-594A-88CA-6C1E7704A4B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EBB233-4A39-1243-8FCF-16A25A1BB507}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="5" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="8" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet 6" sheetId="10" r:id="rId6"/>
     <sheet name="Sheet 7" sheetId="11" r:id="rId7"/>
     <sheet name="Sheet 8" sheetId="12" r:id="rId8"/>
+    <sheet name="Final Distances" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="149">
   <si>
     <t>Interest Points</t>
   </si>
@@ -479,6 +480,12 @@
   </si>
   <si>
     <t>15:22.0</t>
+  </si>
+  <si>
+    <t>Final Lower Bounds</t>
+  </si>
+  <si>
+    <t>Final Upper Bounds</t>
   </si>
 </sst>
 </file>
@@ -866,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC609971-6830-C140-A978-FC29A4E18CF2}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1242,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6551D-24A7-A949-884D-7CD04118D52B}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1286,6 +1293,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2">
+        <v>60.17</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
@@ -1303,6 +1313,9 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2">
+        <v>1285.82</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
@@ -1320,6 +1333,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="1">
+        <v>1482.8</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
@@ -1336,6 +1352,9 @@
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2421</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>37</v>
@@ -1354,6 +1373,9 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="2">
+        <v>2746</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
@@ -1371,6 +1393,9 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1">
+        <v>2930</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1388,6 +1413,9 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>3020</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
@@ -1404,6 +1432,9 @@
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3112</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>41</v>
@@ -1422,6 +1453,9 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B10" s="2">
+        <v>3220.5</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
@@ -1439,6 +1473,9 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="2">
+        <v>3337.6</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
@@ -1455,6 +1492,9 @@
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4560.3999999999996</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>44</v>
@@ -1473,6 +1513,9 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B13" s="2">
+        <v>5883.5</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
@@ -1490,6 +1533,9 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B14" s="1">
+        <v>6250.4</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
@@ -1507,6 +1553,9 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="1">
+        <v>6598</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
@@ -1523,6 +1572,9 @@
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6697</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>48</v>
@@ -1541,6 +1593,9 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B17" s="1">
+        <v>7030</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
@@ -1558,6 +1613,9 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B18" s="1">
+        <v>7289.4</v>
+      </c>
       <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
@@ -1575,6 +1633,9 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B19" s="1">
+        <v>7587.3</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>51</v>
       </c>
@@ -1591,6 +1652,9 @@
     <row r="20" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7694</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>52</v>
@@ -1609,6 +1673,9 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B21" s="1">
+        <v>7921</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
@@ -1625,6 +1692,9 @@
     <row r="22" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7938</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>54</v>
@@ -1648,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED39CA-117A-8847-BB2E-82C9A3B198C5}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1692,6 +1762,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2">
+        <v>60.17</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>55</v>
       </c>
@@ -1709,6 +1782,9 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2">
+        <v>1285.8</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
@@ -1726,6 +1802,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="1">
+        <v>1473.8</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>57</v>
       </c>
@@ -1742,6 +1821,9 @@
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2487</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>58</v>
@@ -1760,6 +1842,9 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="2">
+        <v>2746</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
@@ -1777,6 +1862,9 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="2">
+        <v>2937.75</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>61</v>
       </c>
@@ -1797,6 +1885,9 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>3014</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>62</v>
       </c>
@@ -1816,6 +1907,9 @@
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3125</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>63</v>
@@ -1834,6 +1928,9 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B10" s="2">
+        <v>3220.5</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
@@ -1851,6 +1948,9 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="2">
+        <v>3337.6</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>64</v>
       </c>
@@ -1867,6 +1967,9 @@
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4560.3999999999996</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>66</v>
@@ -1885,6 +1988,9 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B13" s="2">
+        <v>5883.5</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>67</v>
       </c>
@@ -1902,6 +2008,9 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B14" s="1">
+        <v>6250.4</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>68</v>
       </c>
@@ -1919,6 +2028,9 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="1">
+        <v>6598.4</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>69</v>
       </c>
@@ -1935,6 +2047,9 @@
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6705.4</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>70</v>
@@ -1953,6 +2068,9 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B17" s="1">
+        <v>7022</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1970,6 +2088,9 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B18" s="1">
+        <v>7283.6</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1987,6 +2108,9 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B19" s="1">
+        <v>7575</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>72</v>
       </c>
@@ -2006,6 +2130,9 @@
     <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7682</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>73</v>
@@ -2027,6 +2154,9 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B21" s="1">
+        <v>7912</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2040,6 +2170,9 @@
     <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7928</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -2060,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2BA50-2B95-FF43-9FC6-142C482326A9}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2104,6 +2237,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2">
+        <v>60.14</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
@@ -2121,6 +2257,9 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2">
+        <v>1276.7</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>76</v>
       </c>
@@ -2138,6 +2277,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="1">
+        <v>1477.7</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>77</v>
       </c>
@@ -2154,6 +2296,9 @@
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2434</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>78</v>
@@ -2172,6 +2317,9 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="2">
+        <v>2746</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>79</v>
       </c>
@@ -2189,6 +2337,9 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1">
+        <v>2927</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>81</v>
       </c>
@@ -2206,6 +2357,9 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>3021</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>82</v>
       </c>
@@ -2222,6 +2376,9 @@
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3126</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>83</v>
@@ -2240,6 +2397,9 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B10" s="2">
+        <v>3224</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>84</v>
       </c>
@@ -2257,6 +2417,9 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="2">
+        <v>3341</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>85</v>
       </c>
@@ -2273,6 +2436,9 @@
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4558.6000000000004</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>86</v>
@@ -2291,6 +2457,9 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B13" s="2">
+        <v>5873</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>87</v>
       </c>
@@ -2308,6 +2477,9 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B14" s="2">
+        <v>6264</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>88</v>
       </c>
@@ -2325,6 +2497,9 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="1">
+        <v>6604</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>91</v>
       </c>
@@ -2341,6 +2516,9 @@
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6705</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>90</v>
@@ -2359,6 +2537,9 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B17" s="1">
+        <v>7040</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>92</v>
       </c>
@@ -2376,6 +2557,9 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B18" s="1">
+        <v>7305</v>
+      </c>
       <c r="C18" s="5" t="s">
         <v>93</v>
       </c>
@@ -2393,6 +2577,9 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B19" s="1">
+        <v>7603</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>94</v>
       </c>
@@ -2409,6 +2596,9 @@
     <row r="20" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7714</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>95</v>
@@ -2427,6 +2617,9 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B21" s="1">
+        <v>7916</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>96</v>
       </c>
@@ -2443,6 +2636,9 @@
     <row r="22" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7930</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>97</v>
@@ -2466,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72861614-58F5-5C4E-87EB-D1729FCA4042}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2510,6 +2706,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1">
+        <v>61</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>98</v>
       </c>
@@ -2527,6 +2726,9 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1">
+        <v>1278</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>100</v>
       </c>
@@ -2544,6 +2746,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="1">
+        <v>1478</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>101</v>
       </c>
@@ -2560,6 +2765,9 @@
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2437</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>102</v>
@@ -2578,6 +2786,9 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="2">
+        <v>2745</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>103</v>
       </c>
@@ -2595,6 +2806,9 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1">
+        <v>2938</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>109</v>
       </c>
@@ -2612,6 +2826,9 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>3020</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
@@ -2628,6 +2845,9 @@
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3125</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>106</v>
@@ -2646,6 +2866,9 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B10" s="1">
+        <v>3222</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>107</v>
       </c>
@@ -2666,6 +2889,9 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="2">
+        <v>3340</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>108</v>
       </c>
@@ -2685,6 +2911,9 @@
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4554</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>111</v>
@@ -2706,6 +2935,9 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B13" s="2">
+        <v>5884</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>115</v>
       </c>
@@ -2726,6 +2958,9 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B14" s="1">
+        <v>6261</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>116</v>
       </c>
@@ -2743,6 +2978,9 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="2">
+        <v>6606</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>117</v>
       </c>
@@ -2759,6 +2997,9 @@
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6706</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>118</v>
@@ -2777,6 +3018,9 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B17" s="1">
+        <v>7034</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>119</v>
       </c>
@@ -2797,6 +3041,9 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B18" s="1">
+        <v>7296</v>
+      </c>
       <c r="C18" s="5" t="s">
         <v>120</v>
       </c>
@@ -2817,6 +3064,9 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B19" s="1">
+        <v>7579</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>123</v>
       </c>
@@ -2836,6 +3086,9 @@
     <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7721</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>122</v>
@@ -2887,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC7433F-BFCF-564D-89B9-0F263DCCE8F5}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2931,6 +3184,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2">
+        <v>62.1</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>124</v>
       </c>
@@ -2948,6 +3204,9 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2">
+        <v>1262</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>125</v>
       </c>
@@ -2965,6 +3224,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="1">
+        <v>1476</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>126</v>
       </c>
@@ -2981,6 +3243,9 @@
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2445</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>127</v>
@@ -2999,6 +3264,9 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1">
+        <v>2743</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>128</v>
       </c>
@@ -3016,6 +3284,9 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1">
+        <v>2931</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>129</v>
       </c>
@@ -3033,6 +3304,9 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>3020</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>130</v>
       </c>
@@ -3049,6 +3323,9 @@
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3123</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>131</v>
@@ -3067,6 +3344,9 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B10" s="1">
+        <v>3219</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>132</v>
       </c>
@@ -3084,6 +3364,9 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="1">
+        <v>3336</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>133</v>
       </c>
@@ -3100,6 +3383,9 @@
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4550</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>134</v>
@@ -3118,6 +3404,9 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B13" s="1">
+        <v>5873</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>136</v>
       </c>
@@ -3135,6 +3424,9 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B14" s="1">
+        <v>6255</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>137</v>
       </c>
@@ -3152,6 +3444,9 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="1">
+        <v>6593</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>140</v>
       </c>
@@ -3168,6 +3463,9 @@
     <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6697</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>138</v>
@@ -3186,6 +3484,9 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B17" s="1">
+        <v>7025</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>139</v>
       </c>
@@ -3203,6 +3504,9 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B18" s="1">
+        <v>7289</v>
+      </c>
       <c r="C18" s="5" t="s">
         <v>141</v>
       </c>
@@ -3220,6 +3524,9 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B19" s="1">
+        <v>7585</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>142</v>
       </c>
@@ -3239,6 +3546,9 @@
     <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7708</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>144</v>
@@ -3260,6 +3570,9 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B21" s="1">
+        <v>7910</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>145</v>
       </c>
@@ -3276,6 +3589,9 @@
     <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7935</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>146</v>
@@ -3300,7 +3616,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3823,4 +4139,595 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0EE430-9B1E-9342-B25D-B9BEC3038646}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="20.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>60.17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60.17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60.14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2">
+        <v>62.1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1285.82</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1285.8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1276.7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1278</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1262</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1482.8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1473.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1477.7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1478</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1476</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1430</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2421</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2487</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2434</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2437</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2445</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2200</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2746</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2746</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2746</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2745</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2743</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2600</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2930</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2937.75</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2927</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2938</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2931</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2850</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3020</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3014</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3021</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3020</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3020</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2971</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3112</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3125</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3126</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3125</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3123</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3220.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3220.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3224</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3222</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3219</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3160</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3337.6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3337.6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3341</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3340</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3336</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3250</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4560.3999999999996</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4560.3999999999996</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4558.6000000000004</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4554</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4550</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4450</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5883.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5883.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5873</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5884</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5873</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5750</v>
+      </c>
+      <c r="I13" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6250.4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6250.4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6264</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6261</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6255</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6100</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6598</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6598.4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6604</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6606</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6593</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6400</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6697</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6705.4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6705</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6706</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6697</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>6630</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7030</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7022</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7040</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7034</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7025</v>
+      </c>
+      <c r="H17" s="2">
+        <v>6950</v>
+      </c>
+      <c r="I17" s="2">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7289.4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7283.6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7305</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7296</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7289</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7200</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7587.3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7575</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7603</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7579</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7585</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7450</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7694</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7682</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7714</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7721</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7708</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7650</v>
+      </c>
+      <c r="I20" s="2">
+        <v>7780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7921</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7912</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7916</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7910</v>
+      </c>
+      <c r="H21" s="2">
+        <v>7850</v>
+      </c>
+      <c r="I21" s="2">
+        <v>7925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7938</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7928</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7930</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7935</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7925</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7950</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Driving_Notes.xlsx
+++ b/Driving_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashraf/Documents/Github/behavioral_profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EBB233-4A39-1243-8FCF-16A25A1BB507}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917F660-8283-CE4A-A8FD-DF0247ABE9F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="8" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="3" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="17">
   <si>
     <t>Interest Points</t>
   </si>
@@ -84,402 +84,6 @@
   </si>
   <si>
     <t>Other notes</t>
-  </si>
-  <si>
-    <t>n,g,n</t>
-  </si>
-  <si>
-    <t>38.8</t>
-  </si>
-  <si>
-    <t>n,o,n</t>
-  </si>
-  <si>
-    <t>braking could've been better, turn was bad</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>3:15.3</t>
-  </si>
-  <si>
-    <t>n,b,n</t>
-  </si>
-  <si>
-    <t>hard braking</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>y,g,n</t>
-  </si>
-  <si>
-    <t>fast turn</t>
-  </si>
-  <si>
-    <t>turn can be better</t>
-  </si>
-  <si>
-    <t>3:45.5</t>
-  </si>
-  <si>
-    <t>4:46</t>
-  </si>
-  <si>
-    <t>9:47</t>
-  </si>
-  <si>
-    <t>13:19.5</t>
-  </si>
-  <si>
-    <t>n,n/a,y</t>
-  </si>
-  <si>
-    <t>fast approach</t>
-  </si>
-  <si>
-    <t>24.2</t>
-  </si>
-  <si>
-    <t>2:27</t>
-  </si>
-  <si>
-    <t>3:11</t>
-  </si>
-  <si>
-    <t>4:09.5</t>
-  </si>
-  <si>
-    <t>4:45</t>
-  </si>
-  <si>
-    <t>5:16</t>
-  </si>
-  <si>
-    <t>5:30</t>
-  </si>
-  <si>
-    <t>5:50</t>
-  </si>
-  <si>
-    <t>6:09</t>
-  </si>
-  <si>
-    <t>6:38</t>
-  </si>
-  <si>
-    <t>9:09</t>
-  </si>
-  <si>
-    <t>12:34</t>
-  </si>
-  <si>
-    <t>14:03</t>
-  </si>
-  <si>
-    <t>14:36</t>
-  </si>
-  <si>
-    <t>14:47</t>
-  </si>
-  <si>
-    <t>15:27</t>
-  </si>
-  <si>
-    <t>16:04</t>
-  </si>
-  <si>
-    <t>16:49</t>
-  </si>
-  <si>
-    <t>17:08</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>17:50</t>
-  </si>
-  <si>
-    <t>21.9</t>
-  </si>
-  <si>
-    <t>2:24.5</t>
-  </si>
-  <si>
-    <t>3:08.8</t>
-  </si>
-  <si>
-    <t>4:15</t>
-  </si>
-  <si>
-    <t>n,n,y</t>
-  </si>
-  <si>
-    <t>perfect hard braking</t>
-  </si>
-  <si>
-    <t>5:13</t>
-  </si>
-  <si>
-    <t>5:39</t>
-  </si>
-  <si>
-    <t>5:52</t>
-  </si>
-  <si>
-    <t>6:30</t>
-  </si>
-  <si>
-    <t>very bad turn</t>
-  </si>
-  <si>
-    <t>8:26</t>
-  </si>
-  <si>
-    <t>10:43</t>
-  </si>
-  <si>
-    <t>12:17</t>
-  </si>
-  <si>
-    <t>12:47</t>
-  </si>
-  <si>
-    <t>12:56</t>
-  </si>
-  <si>
-    <t>smooth curves, but fast</t>
-  </si>
-  <si>
-    <t>14:37</t>
-  </si>
-  <si>
-    <t>14:55</t>
-  </si>
-  <si>
-    <t>ver bad turn</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>2:21.7</t>
-  </si>
-  <si>
-    <t>3:36.4</t>
-  </si>
-  <si>
-    <t>4:36.1</t>
-  </si>
-  <si>
-    <t>5:05.7</t>
-  </si>
-  <si>
-    <t>n/A,n/a,y</t>
-  </si>
-  <si>
-    <t>5:34.2</t>
-  </si>
-  <si>
-    <t>5:45.3</t>
-  </si>
-  <si>
-    <t>5:59.2</t>
-  </si>
-  <si>
-    <t>6:15</t>
-  </si>
-  <si>
-    <t>6:43.2</t>
-  </si>
-  <si>
-    <t>9:33.8</t>
-  </si>
-  <si>
-    <t>12:11.5</t>
-  </si>
-  <si>
-    <t>13:16.2</t>
-  </si>
-  <si>
-    <t>n,g,y</t>
-  </si>
-  <si>
-    <t>14:09.5</t>
-  </si>
-  <si>
-    <t>13:55</t>
-  </si>
-  <si>
-    <t>14:57.8</t>
-  </si>
-  <si>
-    <t>15:32.8</t>
-  </si>
-  <si>
-    <t>16:16.5</t>
-  </si>
-  <si>
-    <t>16:36.1</t>
-  </si>
-  <si>
-    <t>17:11.4</t>
-  </si>
-  <si>
-    <t>17:17.4</t>
-  </si>
-  <si>
-    <t>23.8</t>
-  </si>
-  <si>
-    <t>y,g,y</t>
-  </si>
-  <si>
-    <t>2:18.1</t>
-  </si>
-  <si>
-    <t>2:47</t>
-  </si>
-  <si>
-    <t>3:45.6</t>
-  </si>
-  <si>
-    <t>4:16.3</t>
-  </si>
-  <si>
-    <t>4:54.6</t>
-  </si>
-  <si>
-    <t>n,b,y</t>
-  </si>
-  <si>
-    <t>5:05.9</t>
-  </si>
-  <si>
-    <t>5:17.4</t>
-  </si>
-  <si>
-    <t>5:34.7</t>
-  </si>
-  <si>
-    <t>4:42.3</t>
-  </si>
-  <si>
-    <t>y,b,n</t>
-  </si>
-  <si>
-    <t>7:38.9</t>
-  </si>
-  <si>
-    <t>confirm times</t>
-  </si>
-  <si>
-    <t>car stopped before</t>
-  </si>
-  <si>
-    <t>car stopped soon after we started</t>
-  </si>
-  <si>
-    <t>10:45.5</t>
-  </si>
-  <si>
-    <t>11:51.4</t>
-  </si>
-  <si>
-    <t>12:22.6</t>
-  </si>
-  <si>
-    <t>12:41</t>
-  </si>
-  <si>
-    <t>13:11.2</t>
-  </si>
-  <si>
-    <t>13:43.7</t>
-  </si>
-  <si>
-    <t>fast turns</t>
-  </si>
-  <si>
-    <t>14:39.5</t>
-  </si>
-  <si>
-    <t>14:18.2</t>
-  </si>
-  <si>
-    <t>29.2</t>
-  </si>
-  <si>
-    <t>2:33.1</t>
-  </si>
-  <si>
-    <t>3:23.9</t>
-  </si>
-  <si>
-    <t>4:27.4</t>
-  </si>
-  <si>
-    <t>4:53.2</t>
-  </si>
-  <si>
-    <t>5:19.5</t>
-  </si>
-  <si>
-    <t>5:32.4</t>
-  </si>
-  <si>
-    <t>5:44.5</t>
-  </si>
-  <si>
-    <t>6:02</t>
-  </si>
-  <si>
-    <t>6:21.1</t>
-  </si>
-  <si>
-    <t>8:22.4</t>
-  </si>
-  <si>
-    <t>y,n/a,y</t>
-  </si>
-  <si>
-    <t>10:50.1</t>
-  </si>
-  <si>
-    <t>11:30.4</t>
-  </si>
-  <si>
-    <t>12:12.7</t>
-  </si>
-  <si>
-    <t>13:05</t>
-  </si>
-  <si>
-    <t>11:58.3</t>
-  </si>
-  <si>
-    <t>13:45.6</t>
-  </si>
-  <si>
-    <t>14:26.8</t>
-  </si>
-  <si>
-    <t>can be better</t>
-  </si>
-  <si>
-    <t>14:47.9</t>
-  </si>
-  <si>
-    <t>15:15.3</t>
-  </si>
-  <si>
-    <t>15:22.0</t>
   </si>
   <si>
     <t>Final Lower Bounds</t>
@@ -873,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC609971-6830-C140-A978-FC29A4E18CF2}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -917,85 +521,46 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1005,14 +570,8 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1025,12 +584,6 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1041,26 +594,14 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1070,9 +611,6 @@
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1081,14 +619,8 @@
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -1098,17 +630,8 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1118,9 +641,6 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1132,9 +652,6 @@
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,14 +663,11 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,11 +677,8 @@
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,14 +688,8 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1194,11 +699,8 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1208,11 +710,8 @@
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1222,11 +721,8 @@
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1235,9 +731,6 @@
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1249,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6551D-24A7-A949-884D-7CD04118D52B}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1293,117 +786,54 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>60.17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>1285.82</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>1482.8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>2421</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>2746</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>2930</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -1413,77 +843,38 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>3020</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>3112</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>3220.5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <v>3337.6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -1493,17 +884,8 @@
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
-        <v>4560.3999999999996</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -1513,37 +895,16 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
-        <v>5883.5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
-        <v>6250.4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -1553,17 +914,8 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1">
-        <v>6598</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -1573,140 +925,77 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
-        <v>6697</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
-        <v>7030</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
-        <v>7289.4</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>7587.3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
-        <v>7694</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
-        <v>7921</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
-        <v>7938</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1718,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED39CA-117A-8847-BB2E-82C9A3B198C5}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1762,203 +1051,95 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>60.17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>1285.8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>1473.8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>2487</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>2746</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>2937.75</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>3014</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>3125</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>3220.5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <v>3337.6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -1968,17 +1149,8 @@
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
-        <v>4560.3999999999996</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -1988,37 +1160,16 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
-        <v>5883.5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
-        <v>6250.4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -2028,17 +1179,8 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1">
-        <v>6598.4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -2048,140 +1190,77 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
-        <v>6705.4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
-        <v>7022</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
-        <v>7283.6</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>7575</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
-        <v>7682</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
-        <v>7912</v>
-      </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
-        <v>7928</v>
-      </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2193,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2BA50-2B95-FF43-9FC6-142C482326A9}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2237,117 +1316,54 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>60.14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>1276.7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>1477.7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>2434</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>2746</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>2927</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -2357,77 +1373,38 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>3021</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>3126</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>3224</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <v>3341</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -2437,17 +1414,8 @@
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
-        <v>4558.6000000000004</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -2457,37 +1425,16 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
-        <v>5873</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
-        <v>6264</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -2497,17 +1444,8 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1">
-        <v>6604</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -2517,140 +1455,77 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2">
-        <v>6705</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
-        <v>7040</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
-        <v>7305</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>7603</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
-        <v>7714</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
-        <v>7916</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
-        <v>7930</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2662,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72861614-58F5-5C4E-87EB-D1729FCA4042}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2706,117 +1581,54 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>61</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>1278</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>1478</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>2437</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>2745</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>2938</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -2826,149 +1638,68 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>3020</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>3125</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
-        <v>3222</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <v>3340</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
-        <v>4554</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
-        <v>5884</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
-        <v>6261</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -2978,17 +1709,8 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
-        <v>6606</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -2998,112 +1720,58 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
-        <v>6706</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
-        <v>7034</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
-        <v>7296</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>7579</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
-        <v>7721</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3113,11 +1781,8 @@
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3126,9 +1791,6 @@
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +1803,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B1:B1048576"/>
+      <selection activeCell="B2" sqref="B2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3184,117 +1846,54 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>62.1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>1262</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>1476</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>2445</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>2743</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>2931</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -3304,77 +1903,38 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>3020</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>3123</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
-        <v>3219</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
-        <v>3336</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -3384,17 +1944,8 @@
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
-        <v>4550</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -3404,37 +1955,16 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
-        <v>5873</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
-        <v>6255</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -3444,17 +1974,8 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1">
-        <v>6593</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -3464,146 +1985,77 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2">
-        <v>6697</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
-        <v>7025</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
-        <v>7289</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>7585</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
-        <v>7708</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
-        <v>7910</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
-        <v>7935</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3615,7 +2067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC8841-5808-9244-A5AE-9A821460627E}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C20" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -4145,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0EE430-9B1E-9342-B25D-B9BEC3038646}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4178,554 +2630,193 @@
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>60.17</v>
-      </c>
-      <c r="C2" s="2">
-        <v>60.17</v>
-      </c>
-      <c r="D2" s="2">
-        <v>60.14</v>
-      </c>
-      <c r="E2" s="1">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2">
-        <v>62.1</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>35</v>
-      </c>
-      <c r="I2" s="2">
-        <v>70</v>
-      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>1285.82</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1285.8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1276.7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1278</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1262</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1330</v>
-      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>1482.8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1473.8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1477.7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1478</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1476</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1430</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1800</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>2421</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2487</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2434</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2437</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2445</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2200</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2550</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>2746</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2746</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2746</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2745</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2743</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2600</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2800</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>2930</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2937.75</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2927</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2938</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2931</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2850</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2970</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>3020</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3014</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3021</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3020</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3020</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2971</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3100</v>
-      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>3112</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3125</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3126</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3125</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3123</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3100</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3160</v>
-      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>3220.5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3220.5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3224</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3222</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3219</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3160</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3250</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <v>3337.6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3337.6</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3341</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3340</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3336</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3250</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3400</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
-        <v>4560.3999999999996</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4560.3999999999996</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4558.6000000000004</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4554</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4550</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4450</v>
-      </c>
-      <c r="I12" s="2">
-        <v>4650</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
-        <v>5883.5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5883.5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5873</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5884</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5873</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5750</v>
-      </c>
-      <c r="I13" s="2">
-        <v>6000</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
-        <v>6250.4</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6250.4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6264</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6261</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6255</v>
-      </c>
-      <c r="H14" s="2">
-        <v>6100</v>
-      </c>
-      <c r="I14" s="2">
-        <v>6300</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1">
-        <v>6598</v>
-      </c>
-      <c r="C15" s="1">
-        <v>6598.4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6604</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6606</v>
-      </c>
-      <c r="F15" s="1">
-        <v>6593</v>
-      </c>
-      <c r="H15" s="2">
-        <v>6400</v>
-      </c>
-      <c r="I15" s="2">
-        <v>6630</v>
-      </c>
+      <c r="E15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
-        <v>6697</v>
-      </c>
-      <c r="C16" s="1">
-        <v>6705.4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6705</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6706</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6697</v>
-      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>6630</v>
-      </c>
-      <c r="I16" s="2">
-        <v>6800</v>
-      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
-        <v>7030</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7022</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7040</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7034</v>
-      </c>
-      <c r="F17" s="1">
-        <v>7025</v>
-      </c>
-      <c r="H17" s="2">
-        <v>6950</v>
-      </c>
-      <c r="I17" s="2">
-        <v>7150</v>
-      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
-        <v>7289.4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7283.6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>7305</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7296</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7289</v>
-      </c>
-      <c r="H18" s="2">
-        <v>7200</v>
-      </c>
-      <c r="I18" s="2">
-        <v>7400</v>
-      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>7587.3</v>
-      </c>
-      <c r="C19" s="1">
-        <v>7575</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7603</v>
-      </c>
-      <c r="E19" s="1">
-        <v>7579</v>
-      </c>
-      <c r="F19" s="1">
-        <v>7585</v>
-      </c>
-      <c r="H19" s="2">
-        <v>7450</v>
-      </c>
-      <c r="I19" s="2">
-        <v>7650</v>
-      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
-        <v>7694</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7682</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7714</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7721</v>
-      </c>
-      <c r="F20" s="1">
-        <v>7708</v>
-      </c>
-      <c r="H20" s="2">
-        <v>7650</v>
-      </c>
-      <c r="I20" s="2">
-        <v>7780</v>
-      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
-        <v>7921</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7912</v>
-      </c>
-      <c r="D21" s="1">
-        <v>7916</v>
-      </c>
-      <c r="F21" s="1">
-        <v>7910</v>
-      </c>
-      <c r="H21" s="2">
-        <v>7850</v>
-      </c>
-      <c r="I21" s="2">
-        <v>7925</v>
-      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
-        <v>7938</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7928</v>
-      </c>
-      <c r="D22" s="1">
-        <v>7930</v>
-      </c>
-      <c r="F22" s="1">
-        <v>7935</v>
-      </c>
-      <c r="H22" s="2">
-        <v>7925</v>
-      </c>
-      <c r="I22" s="2">
-        <v>7950</v>
-      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Driving_Notes.xlsx
+++ b/Driving_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashraf/Documents/Github/behavioral_profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917F660-8283-CE4A-A8FD-DF0247ABE9F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DAC353-738D-E746-BFA0-87A5380D84A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="3" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="7" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="37">
   <si>
     <t>Interest Points</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Roundabout</t>
   </si>
   <si>
-    <t xml:space="preserve">______Shankar; Lap 1______ Lap Time: </t>
-  </si>
-  <si>
     <t xml:space="preserve">______Shankar; Lap 1______ STOP SIGN: cars in front, braking, rolling </t>
   </si>
   <si>
@@ -90,6 +87,69 @@
   </si>
   <si>
     <t>Final Upper Bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______Shankar; Lap 2______ STOP SIGN: cars in front, braking, rolling </t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 2______ STOP LIGHT:  cars in front, braking, rolling</t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 2______ TURNS: fast or slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______Shankar; Lap 3______ STOP SIGN: cars in front, braking, rolling </t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 3______ STOP LIGHT:  cars in front, braking, rolling</t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 3______ TURNS: fast or slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______Shankar; Lap 4______ STOP SIGN: cars in front, braking, rolling </t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 4______ STOP LIGHT:  cars in front, braking, rolling</t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 4______ TURNS: fast or slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______Shankar; Lap 5______ STOP SIGN: cars in front, braking, rolling </t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 5______ STOP LIGHT:  cars in front, braking, rolling</t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 5______ TURNS: fast or slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______Shankar; Lap 6______ STOP SIGN: cars in front, braking, rolling </t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 6______ STOP LIGHT:  cars in front, braking, rolling</t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 6______ TURNS: fast or slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______Shankar; Lap 7______ STOP SIGN: cars in front, braking, rolling </t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 7______ STOP LIGHT:  cars in front, braking, rolling</t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 7______ TURNS: fast or slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______Shankar; Lap 8______ STOP SIGN: cars in front, braking, rolling </t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 8______ STOP LIGHT:  cars in front, braking, rolling</t>
+  </si>
+  <si>
+    <t>______Shankar; Lap 8______ TURNS: fast or slow</t>
   </si>
 </sst>
 </file>
@@ -146,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -155,12 +215,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,28 +529,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC609971-6830-C140-A978-FC29A4E18CF2}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="5" customWidth="1"/>
-    <col min="4" max="12" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="50.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -506,231 +557,228 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -740,262 +788,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6551D-24A7-A949-884D-7CD04118D52B}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="5" customWidth="1"/>
-    <col min="4" max="12" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="50.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1005,262 +1047,256 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED39CA-117A-8847-BB2E-82C9A3B198C5}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="5" customWidth="1"/>
-    <col min="4" max="12" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="50.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1270,262 +1306,256 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2BA50-2B95-FF43-9FC6-142C482326A9}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="5" customWidth="1"/>
-    <col min="4" max="12" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="50.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1535,262 +1565,256 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72861614-58F5-5C4E-87EB-D1729FCA4042}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="5" customWidth="1"/>
-    <col min="4" max="12" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="50.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1800,262 +1824,256 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC7433F-BFCF-564D-89B9-0F263DCCE8F5}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="5" customWidth="1"/>
-    <col min="4" max="12" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="50.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2065,262 +2083,256 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC8841-5808-9244-A5AE-9A821460627E}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="5" customWidth="1"/>
-    <col min="4" max="12" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="50.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2330,262 +2342,256 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C23065-D40B-374D-B96F-802F16110DDE}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="5" customWidth="1"/>
-    <col min="4" max="12" width="50.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="50.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2604,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2630,10 +2636,10 @@
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2641,8 +2647,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="1">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1">
+        <v>96</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2653,8 +2666,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1996</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2664,12 +2684,30 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1">
+        <v>2335</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2305</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2300</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3820</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3807</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3802</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2679,9 +2717,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1">
+        <v>4291</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4300</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4303</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
@@ -2689,7 +2733,15 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1">
+        <v>4590</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4597</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4604</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
@@ -2697,12 +2749,30 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1">
+        <v>4736</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4801</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4764</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4890</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4907</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2712,8 +2782,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="1">
+        <v>5034</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5041</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5047</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
@@ -2722,9 +2799,15 @@
         <v>5</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1">
+        <v>5207</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5225</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5264</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
@@ -2733,9 +2816,15 @@
         <v>5</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1">
+        <v>7099</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7099</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7147</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -2744,9 +2833,15 @@
         <v>3</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1">
+        <v>9180</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9121</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9171</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
@@ -2754,7 +2849,15 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="1">
+        <v>9801</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9895</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9814</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
@@ -2762,7 +2865,15 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="C15" s="1">
+        <v>10320</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10346</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10346</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
@@ -2770,7 +2881,12 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="1">
+        <v>10478</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10510</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2780,6 +2896,15 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C17" s="1">
+        <v>10993</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11010</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11006</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -2787,6 +2912,15 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="1">
+        <v>11408</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11430</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11412</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
@@ -2794,12 +2928,30 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C19" s="1">
+        <v>11877</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11892</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11885</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12041</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12060</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12050</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2808,12 +2960,30 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" s="1">
+        <v>12396</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12409</v>
+      </c>
+      <c r="E21" s="1">
+        <v>12399</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12404</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12429</v>
+      </c>
+      <c r="E22" s="1">
+        <v>12419</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>

--- a/Driving_Notes.xlsx
+++ b/Driving_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashraf/Documents/Github/behavioral_profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DAC353-738D-E746-BFA0-87A5380D84A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C17616B-5761-4349-BA41-30F4B6FFADB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="7" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="8" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="96">
   <si>
     <t>Interest Points</t>
   </si>
@@ -150,6 +150,183 @@
   </si>
   <si>
     <t>______Shankar; Lap 8______ TURNS: fast or slow</t>
+  </si>
+  <si>
+    <t>rolling stop at RP, hard braking before hesitation at thiesen</t>
+  </si>
+  <si>
+    <t>fast accn after hesitation in RP stop, rolling stop at thiesen, not constant speed at s 16</t>
+  </si>
+  <si>
+    <t>at least one signal, try to catch a green signal, so accelerate near green signal, at least one signal hard brake</t>
+  </si>
+  <si>
+    <t>n,g,n</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>engine rev up quickly</t>
+  </si>
+  <si>
+    <t>n,n,y</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>y,g,n</t>
+  </si>
+  <si>
+    <t>n,g,y</t>
+  </si>
+  <si>
+    <t>it was almost a stop, didn’t turn out exactly as planned</t>
+  </si>
+  <si>
+    <t>could be better braking slightly</t>
+  </si>
+  <si>
+    <t>relatively higher acceleration when reaching 45 miles speed limit</t>
+  </si>
+  <si>
+    <t>braking slightly jerky</t>
+  </si>
+  <si>
+    <t>bad acceleration during turn</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>n,o,n</t>
+  </si>
+  <si>
+    <t>tried to brake bad, but was not so bad</t>
+  </si>
+  <si>
+    <t>rolling stop, hesitation, not much hard brake</t>
+  </si>
+  <si>
+    <t>n,b,n</t>
+  </si>
+  <si>
+    <t>perfect hard brake, bad high accn and after turn also high accn</t>
+  </si>
+  <si>
+    <t>braking when approaching turn was bad.</t>
+  </si>
+  <si>
+    <t>exactly as planned, rolling + hesitation</t>
+  </si>
+  <si>
+    <t>rolling + hesitate at RP stop sign, sudden acceleration at south 16th, perfect hard brake stop at thiesen</t>
+  </si>
+  <si>
+    <t>good acceleration to reach highway speeds</t>
+  </si>
+  <si>
+    <t>good braking but bad accelearation after stop, engine rev up</t>
+  </si>
+  <si>
+    <t>bad turn as in jerky</t>
+  </si>
+  <si>
+    <t>medium bad brake, full stop though</t>
+  </si>
+  <si>
+    <t>slight sudden acceleration thrice till before next signal, one bad braking while on road</t>
+  </si>
+  <si>
+    <t>attempt to accelerate to catch green signal, slight sudden acceleration</t>
+  </si>
+  <si>
+    <t>smooth accelerations after turns</t>
+  </si>
+  <si>
+    <t>kinda bad accn after leaving roundabout</t>
+  </si>
+  <si>
+    <t>hard brake, when approaching, bad turn</t>
+  </si>
+  <si>
+    <t>good stop sign, better register 0 speed.</t>
+  </si>
+  <si>
+    <t>slightly jerky braking</t>
+  </si>
+  <si>
+    <t>hard braking avhieved at signal</t>
+  </si>
+  <si>
+    <t>accelerated during a turn</t>
+  </si>
+  <si>
+    <t>slightly bad braking</t>
+  </si>
+  <si>
+    <t>acceleration couldv'e been smoother</t>
+  </si>
+  <si>
+    <t>perfect catching a green signal</t>
+  </si>
+  <si>
+    <t>perfect hard brake at a signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catching a green signal, </t>
+  </si>
+  <si>
+    <t>perfect bad turn</t>
+  </si>
+  <si>
+    <t>ideal behavior</t>
+  </si>
+  <si>
+    <t>slight acceleration for trying to catch signal and then had to brake, so good for threshold</t>
+  </si>
+  <si>
+    <t>2009, 2014</t>
+  </si>
+  <si>
+    <t>1995 - 2020</t>
+  </si>
+  <si>
+    <t>90 - 110</t>
+  </si>
+  <si>
+    <t>4290 - 4310</t>
+  </si>
+  <si>
+    <t>4595 - 4610</t>
+  </si>
+  <si>
+    <t>5040 - 5055</t>
+  </si>
+  <si>
+    <t>5215 - 5235</t>
+  </si>
+  <si>
+    <t>7090 - 7130</t>
+  </si>
+  <si>
+    <t>9197 - 9207</t>
+  </si>
+  <si>
+    <t>9180 - 9215</t>
+  </si>
+  <si>
+    <t>9795 - 9820</t>
+  </si>
+  <si>
+    <t>10319 - 10330</t>
+  </si>
+  <si>
+    <t>10315 - 10350</t>
+  </si>
+  <si>
+    <t>10500 - 10520</t>
   </si>
 </sst>
 </file>
@@ -529,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC609971-6830-C140-A978-FC29A4E18CF2}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -565,31 +742,50 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -602,34 +798,49 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -643,24 +854,39 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -670,27 +896,39 @@
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -700,6 +938,9 @@
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -711,22 +952,31 @@
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -736,8 +986,11 @@
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -747,10 +1000,13 @@
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -758,27 +1014,50 @@
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -788,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6551D-24A7-A949-884D-7CD04118D52B}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -824,31 +1103,53 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -861,34 +1162,52 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -905,7 +1224,10 @@
     </row>
     <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -913,13 +1235,19 @@
     </row>
     <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -935,21 +1263,30 @@
     </row>
     <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -974,18 +1311,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,9 +1344,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -1018,25 +1355,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1047,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED39CA-117A-8847-BB2E-82C9A3B198C5}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1083,30 +1434,37 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1120,10 +1478,16 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1131,23 +1495,23 @@
     </row>
     <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1161,10 +1525,16 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1172,13 +1542,13 @@
     </row>
     <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1191,24 +1561,33 @@
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
+      <c r="F14" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1233,18 +1612,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,10 +1644,13 @@
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -1277,25 +1659,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1306,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2BA50-2B95-FF43-9FC6-142C482326A9}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1342,31 +1738,41 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1382,7 +1788,10 @@
     </row>
     <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1390,24 +1799,24 @@
     </row>
     <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1420,10 +1829,16 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1431,13 +1846,13 @@
     </row>
     <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1453,21 +1868,24 @@
     </row>
     <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
+      <c r="F14" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
@@ -1480,6 +1898,9 @@
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1491,19 +1912,25 @@
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1525,9 +1952,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -1536,25 +1963,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1565,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72861614-58F5-5C4E-87EB-D1729FCA4042}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1601,30 +2042,34 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1641,7 +2086,10 @@
     </row>
     <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1649,23 +2097,20 @@
     </row>
     <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1682,7 +2127,10 @@
     </row>
     <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1690,12 +2138,9 @@
     </row>
     <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1712,20 +2157,20 @@
     </row>
     <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1739,6 +2184,9 @@
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1751,18 +2199,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1773,7 +2221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1784,9 +2232,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -1795,25 +2243,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1824,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC7433F-BFCF-564D-89B9-0F263DCCE8F5}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1860,30 +2319,34 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1900,7 +2363,10 @@
     </row>
     <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1908,23 +2374,20 @@
     </row>
     <row r="7" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1941,7 +2404,10 @@
     </row>
     <row r="10" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1949,12 +2415,9 @@
     </row>
     <row r="11" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1971,20 +2434,20 @@
     </row>
     <row r="13" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2010,18 +2473,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2032,7 +2495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2043,9 +2506,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -2054,25 +2517,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2344,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C23065-D40B-374D-B96F-802F16110DDE}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2601,21 +3075,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0EE430-9B1E-9342-B25D-B9BEC3038646}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" style="1" customWidth="1"/>
-    <col min="2" max="6" width="20.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2631,18 +3108,19 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2657,15 +3135,24 @@
         <v>96</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="2">
+        <v>70</v>
+      </c>
+      <c r="J2" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C3" s="1">
         <v>1997</v>
       </c>
@@ -2676,11 +3163,18 @@
         <v>1996</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="2">
+        <v>1800</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2693,10 +3187,14 @@
       <c r="E4" s="1">
         <v>2300</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <v>2300</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2709,10 +3207,10 @@
       <c r="E5" s="1">
         <v>3802</v>
       </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2726,10 +3224,17 @@
       <c r="E6" s="1">
         <v>4303</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4200</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2742,10 +3247,17 @@
       <c r="E7" s="1">
         <v>4604</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4500</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2758,10 +3270,10 @@
       <c r="E8" s="1">
         <v>4764</v>
       </c>
-      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2774,10 +3286,10 @@
       <c r="E9" s="1">
         <v>4907</v>
       </c>
-      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2791,14 +3303,23 @@
       <c r="E10" s="1">
         <v>5047</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4980</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>5216</v>
+      </c>
       <c r="C11" s="1">
         <v>5207</v>
       </c>
@@ -2808,14 +3329,23 @@
       <c r="E11" s="1">
         <v>5264</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5150</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>7122</v>
+      </c>
       <c r="C12" s="1">
         <v>7099</v>
       </c>
@@ -2825,14 +3355,23 @@
       <c r="E12" s="1">
         <v>7147</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C13" s="1">
         <v>9180</v>
       </c>
@@ -2842,12 +3381,22 @@
       <c r="E13" s="1">
         <v>9171</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9100</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9800</v>
       </c>
       <c r="C14" s="1">
         <v>9801</v>
@@ -2858,12 +3407,22 @@
       <c r="E14" s="1">
         <v>9814</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9700</v>
+      </c>
+      <c r="J14" s="2">
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C15" s="1">
         <v>10320</v>
@@ -2874,12 +3433,22 @@
       <c r="E15" s="1">
         <v>10346</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10200</v>
+      </c>
+      <c r="J15" s="2">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10504</v>
       </c>
       <c r="D16" s="1">
         <v>10478</v>
@@ -2888,11 +3457,18 @@
         <v>10510</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <v>10425</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2905,10 +3481,10 @@
       <c r="E17" s="1">
         <v>11006</v>
       </c>
-      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2921,10 +3497,10 @@
       <c r="E18" s="1">
         <v>11412</v>
       </c>
-      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2937,10 +3513,10 @@
       <c r="E19" s="1">
         <v>11885</v>
       </c>
-      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -2953,10 +3529,10 @@
       <c r="E20" s="1">
         <v>12050</v>
       </c>
-      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -2969,10 +3545,10 @@
       <c r="E21" s="1">
         <v>12399</v>
       </c>
-      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2985,8 +3561,8 @@
       <c r="E22" s="1">
         <v>12419</v>
       </c>
-      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Driving_Notes.xlsx
+++ b/Driving_Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashraf/Documents/Github/behavioral_profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C17616B-5761-4349-BA41-30F4B6FFADB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBE3ACC-376D-6B47-89B3-6DE23497CC2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="8" xr2:uid="{CE62AA09-BCB8-FF42-8315-43245B711082}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="101">
   <si>
     <t>Interest Points</t>
   </si>
@@ -327,6 +327,21 @@
   </si>
   <si>
     <t>10500 - 10520</t>
+  </si>
+  <si>
+    <t>turn/special end</t>
+  </si>
+  <si>
+    <t>turn/special start</t>
+  </si>
+  <si>
+    <t>leaving end</t>
+  </si>
+  <si>
+    <t>entering start</t>
+  </si>
+  <si>
+    <t>stop sign start</t>
   </si>
 </sst>
 </file>
@@ -383,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -392,6 +407,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3075,494 +3093,724 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0EE430-9B1E-9342-B25D-B9BEC3038646}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
-    <col min="9" max="10" width="25.83203125" customWidth="1"/>
+    <col min="2" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="34" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="20.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
+    <col min="15" max="16" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1">
+      <c r="B2" s="4">
+        <v>70</v>
+      </c>
+      <c r="C2" s="4">
+        <v>90</v>
+      </c>
+      <c r="D2" s="4">
+        <v>105</v>
+      </c>
+      <c r="E2" s="4">
+        <v>130</v>
+      </c>
+      <c r="F2" s="4">
+        <v>150</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1">
         <v>97</v>
       </c>
-      <c r="D2" s="1">
+      <c r="J2" s="1">
         <v>93</v>
       </c>
-      <c r="E2" s="1">
+      <c r="K2" s="1">
         <v>96</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
         <v>70</v>
       </c>
-      <c r="J2" s="2">
+      <c r="P2" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4">
+        <v>1800</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2085</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2200</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="1">
+      <c r="I3" s="1">
         <v>1997</v>
       </c>
-      <c r="D3" s="1">
+      <c r="J3" s="1">
         <v>2003</v>
       </c>
-      <c r="E3" s="1">
+      <c r="K3" s="1">
         <v>1996</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
         <v>1800</v>
       </c>
-      <c r="J3" s="2">
+      <c r="P3" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="I4" s="1">
         <v>2335</v>
       </c>
-      <c r="D4" s="1">
+      <c r="J4" s="1">
         <v>2305</v>
       </c>
-      <c r="E4" s="1">
+      <c r="K4" s="1">
         <v>2300</v>
       </c>
-      <c r="I4" s="2">
+      <c r="O4" s="2">
         <v>2300</v>
       </c>
-      <c r="J4" s="2">
+      <c r="P4" s="2">
         <v>2550</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="I5" s="1">
         <v>3820</v>
       </c>
-      <c r="D5" s="1">
+      <c r="J5" s="1">
         <v>3807</v>
       </c>
-      <c r="E5" s="1">
+      <c r="K5" s="1">
         <v>3802</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
+      <c r="B6" s="4">
+        <v>4200</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4290</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4315</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4340</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4375</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1">
         <v>4291</v>
       </c>
-      <c r="D6" s="1">
+      <c r="J6" s="1">
         <v>4300</v>
       </c>
-      <c r="E6" s="1">
+      <c r="K6" s="1">
         <v>4303</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="2">
+      <c r="O6" s="2">
         <v>4200</v>
       </c>
-      <c r="J6" s="2">
+      <c r="P6" s="2">
         <v>4375</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="B7" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4605</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4640</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4670</v>
+      </c>
+      <c r="I7" s="1">
         <v>4590</v>
       </c>
-      <c r="D7" s="1">
+      <c r="J7" s="1">
         <v>4597</v>
       </c>
-      <c r="E7" s="1">
+      <c r="K7" s="1">
         <v>4604</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>4500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>4650</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="B8" s="4">
+        <v>4700</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4760</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4805</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4820</v>
+      </c>
+      <c r="I8" s="1">
         <v>4736</v>
       </c>
-      <c r="D8" s="1">
+      <c r="J8" s="1">
         <v>4801</v>
       </c>
-      <c r="E8" s="1">
+      <c r="K8" s="1">
         <v>4764</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="B9" s="4">
+        <v>4880</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4915</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4930</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4950</v>
+      </c>
+      <c r="I9" s="1">
         <v>4890</v>
       </c>
-      <c r="D9" s="1">
+      <c r="J9" s="1">
         <v>4915</v>
       </c>
-      <c r="E9" s="1">
+      <c r="K9" s="1">
         <v>4907</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1">
+      <c r="B10" s="4">
+        <v>4980</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5040</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5055</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5080</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5100</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
         <v>5034</v>
       </c>
-      <c r="D10" s="1">
+      <c r="J10" s="1">
         <v>5041</v>
       </c>
-      <c r="E10" s="1">
+      <c r="K10" s="1">
         <v>5047</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="2">
+      <c r="O10" s="2">
         <v>4980</v>
       </c>
-      <c r="J10" s="2">
+      <c r="P10" s="2">
         <v>5100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
+        <v>5150</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5230</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5290</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5400</v>
+      </c>
+      <c r="H11" s="2">
         <v>5216</v>
       </c>
-      <c r="C11" s="1">
+      <c r="I11" s="1">
         <v>5207</v>
       </c>
-      <c r="D11" s="1">
+      <c r="J11" s="1">
         <v>5225</v>
       </c>
-      <c r="E11" s="1">
+      <c r="K11" s="1">
         <v>5264</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="2">
+      <c r="O11" s="2">
         <v>5150</v>
       </c>
-      <c r="J11" s="2">
+      <c r="P11" s="2">
         <v>5400</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7130</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7170</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7250</v>
+      </c>
+      <c r="H12" s="2">
         <v>7122</v>
       </c>
-      <c r="C12" s="1">
+      <c r="I12" s="1">
         <v>7099</v>
       </c>
-      <c r="D12" s="1">
+      <c r="J12" s="1">
         <v>7099</v>
       </c>
-      <c r="E12" s="1">
+      <c r="K12" s="1">
         <v>7147</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="2">
+      <c r="O12" s="2">
         <v>7000</v>
       </c>
-      <c r="J12" s="2">
+      <c r="P12" s="2">
         <v>7250</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4">
+        <v>9100</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9210</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9250</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9350</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="1">
+      <c r="I13" s="1">
         <v>9180</v>
       </c>
-      <c r="D13" s="1">
+      <c r="J13" s="1">
         <v>9121</v>
       </c>
-      <c r="E13" s="1">
+      <c r="K13" s="1">
         <v>9171</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="2">
+      <c r="O13" s="2">
         <v>9100</v>
       </c>
-      <c r="J13" s="2">
+      <c r="P13" s="2">
         <v>9350</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
+        <v>9700</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9815</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9860</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9950</v>
+      </c>
+      <c r="H14" s="1">
         <v>9800</v>
       </c>
-      <c r="C14" s="1">
+      <c r="I14" s="1">
         <v>9801</v>
       </c>
-      <c r="D14" s="1">
+      <c r="J14" s="1">
         <v>9895</v>
       </c>
-      <c r="E14" s="1">
+      <c r="K14" s="1">
         <v>9814</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="2">
+      <c r="O14" s="2">
         <v>9700</v>
       </c>
-      <c r="J14" s="2">
+      <c r="P14" s="2">
         <v>9950</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4">
+        <v>10200</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10350</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10380</v>
+      </c>
+      <c r="F15" s="4">
+        <v>10430</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="1">
+      <c r="I15" s="1">
         <v>10320</v>
       </c>
-      <c r="D15" s="1">
+      <c r="J15" s="1">
         <v>10346</v>
       </c>
-      <c r="E15" s="1">
+      <c r="K15" s="1">
         <v>10346</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="2">
+      <c r="O15" s="2">
         <v>10200</v>
       </c>
-      <c r="J15" s="2">
+      <c r="P15" s="2">
         <v>10400</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
+        <v>10430</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10510</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10550</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10600</v>
+      </c>
+      <c r="H16" s="1">
         <v>10504</v>
       </c>
-      <c r="D16" s="1">
+      <c r="J16" s="1">
         <v>10478</v>
       </c>
-      <c r="E16" s="1">
+      <c r="K16" s="1">
         <v>10510</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2">
         <v>10425</v>
       </c>
-      <c r="J16" s="2">
+      <c r="P16" s="2">
         <v>10600</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1">
+      <c r="B17" s="4">
+        <v>10950</v>
+      </c>
+      <c r="D17" s="4">
+        <v>11010</v>
+      </c>
+      <c r="E17" s="4">
+        <v>11050</v>
+      </c>
+      <c r="F17" s="4">
+        <v>11075</v>
+      </c>
+      <c r="I17" s="1">
         <v>10993</v>
       </c>
-      <c r="D17" s="1">
+      <c r="J17" s="1">
         <v>11010</v>
       </c>
-      <c r="E17" s="1">
+      <c r="K17" s="1">
         <v>11006</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1">
+      <c r="B18" s="4">
+        <v>11375</v>
+      </c>
+      <c r="D18" s="4">
+        <v>11430</v>
+      </c>
+      <c r="E18" s="4">
+        <v>11480</v>
+      </c>
+      <c r="F18" s="4">
+        <v>11510</v>
+      </c>
+      <c r="I18" s="1">
         <v>11408</v>
       </c>
-      <c r="D18" s="1">
+      <c r="J18" s="1">
         <v>11430</v>
       </c>
-      <c r="E18" s="1">
+      <c r="K18" s="1">
         <v>11412</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1">
+      <c r="B19" s="4">
+        <v>11830</v>
+      </c>
+      <c r="D19" s="4">
+        <v>11890</v>
+      </c>
+      <c r="E19" s="4">
+        <v>11925</v>
+      </c>
+      <c r="F19" s="4">
+        <v>11960</v>
+      </c>
+      <c r="I19" s="1">
         <v>11877</v>
       </c>
-      <c r="D19" s="1">
+      <c r="J19" s="1">
         <v>11892</v>
       </c>
-      <c r="E19" s="1">
+      <c r="K19" s="1">
         <v>11885</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
+      <c r="B20" s="4">
+        <v>12020</v>
+      </c>
+      <c r="D20" s="4">
+        <v>12050</v>
+      </c>
+      <c r="E20" s="4">
+        <v>12070</v>
+      </c>
+      <c r="F20" s="4">
+        <v>12100</v>
+      </c>
+      <c r="I20" s="1">
         <v>12041</v>
       </c>
-      <c r="D20" s="1">
+      <c r="J20" s="1">
         <v>12060</v>
       </c>
-      <c r="E20" s="1">
+      <c r="K20" s="1">
         <v>12050</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1">
+      <c r="I21" s="1">
         <v>12396</v>
       </c>
-      <c r="D21" s="1">
+      <c r="J21" s="1">
         <v>12409</v>
       </c>
-      <c r="E21" s="1">
+      <c r="K21" s="1">
         <v>12399</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
+      <c r="I22" s="1">
         <v>12404</v>
       </c>
-      <c r="D22" s="1">
+      <c r="J22" s="1">
         <v>12429</v>
       </c>
-      <c r="E22" s="1">
+      <c r="K22" s="1">
         <v>12419</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
